--- a/train/student_data.xlsx
+++ b/train/student_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1103"/>
+  <dimension ref="A1:C1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15481,10 +15481,8 @@
       </c>
     </row>
     <row r="1004">
-      <c r="A1004" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1004" t="n">
+        <v>10</v>
       </c>
       <c r="B1004" t="inlineStr">
         <is>
@@ -15498,10 +15496,8 @@
       </c>
     </row>
     <row r="1005">
-      <c r="A1005" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1005" t="n">
+        <v>10</v>
       </c>
       <c r="B1005" t="inlineStr">
         <is>
@@ -15515,10 +15511,8 @@
       </c>
     </row>
     <row r="1006">
-      <c r="A1006" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1006" t="n">
+        <v>10</v>
       </c>
       <c r="B1006" t="inlineStr">
         <is>
@@ -15532,10 +15526,8 @@
       </c>
     </row>
     <row r="1007">
-      <c r="A1007" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1007" t="n">
+        <v>10</v>
       </c>
       <c r="B1007" t="inlineStr">
         <is>
@@ -15549,10 +15541,8 @@
       </c>
     </row>
     <row r="1008">
-      <c r="A1008" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1008" t="n">
+        <v>10</v>
       </c>
       <c r="B1008" t="inlineStr">
         <is>
@@ -15566,10 +15556,8 @@
       </c>
     </row>
     <row r="1009">
-      <c r="A1009" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1009" t="n">
+        <v>10</v>
       </c>
       <c r="B1009" t="inlineStr">
         <is>
@@ -15583,10 +15571,8 @@
       </c>
     </row>
     <row r="1010">
-      <c r="A1010" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1010" t="n">
+        <v>10</v>
       </c>
       <c r="B1010" t="inlineStr">
         <is>
@@ -15600,10 +15586,8 @@
       </c>
     </row>
     <row r="1011">
-      <c r="A1011" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1011" t="n">
+        <v>10</v>
       </c>
       <c r="B1011" t="inlineStr">
         <is>
@@ -15617,10 +15601,8 @@
       </c>
     </row>
     <row r="1012">
-      <c r="A1012" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1012" t="n">
+        <v>10</v>
       </c>
       <c r="B1012" t="inlineStr">
         <is>
@@ -15634,10 +15616,8 @@
       </c>
     </row>
     <row r="1013">
-      <c r="A1013" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1013" t="n">
+        <v>10</v>
       </c>
       <c r="B1013" t="inlineStr">
         <is>
@@ -15651,10 +15631,8 @@
       </c>
     </row>
     <row r="1014">
-      <c r="A1014" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1014" t="n">
+        <v>10</v>
       </c>
       <c r="B1014" t="inlineStr">
         <is>
@@ -15668,10 +15646,8 @@
       </c>
     </row>
     <row r="1015">
-      <c r="A1015" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1015" t="n">
+        <v>10</v>
       </c>
       <c r="B1015" t="inlineStr">
         <is>
@@ -15685,10 +15661,8 @@
       </c>
     </row>
     <row r="1016">
-      <c r="A1016" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1016" t="n">
+        <v>10</v>
       </c>
       <c r="B1016" t="inlineStr">
         <is>
@@ -15702,10 +15676,8 @@
       </c>
     </row>
     <row r="1017">
-      <c r="A1017" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1017" t="n">
+        <v>10</v>
       </c>
       <c r="B1017" t="inlineStr">
         <is>
@@ -15719,10 +15691,8 @@
       </c>
     </row>
     <row r="1018">
-      <c r="A1018" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1018" t="n">
+        <v>10</v>
       </c>
       <c r="B1018" t="inlineStr">
         <is>
@@ -15736,10 +15706,8 @@
       </c>
     </row>
     <row r="1019">
-      <c r="A1019" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1019" t="n">
+        <v>10</v>
       </c>
       <c r="B1019" t="inlineStr">
         <is>
@@ -15753,10 +15721,8 @@
       </c>
     </row>
     <row r="1020">
-      <c r="A1020" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1020" t="n">
+        <v>10</v>
       </c>
       <c r="B1020" t="inlineStr">
         <is>
@@ -15770,10 +15736,8 @@
       </c>
     </row>
     <row r="1021">
-      <c r="A1021" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1021" t="n">
+        <v>10</v>
       </c>
       <c r="B1021" t="inlineStr">
         <is>
@@ -15787,10 +15751,8 @@
       </c>
     </row>
     <row r="1022">
-      <c r="A1022" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1022" t="n">
+        <v>10</v>
       </c>
       <c r="B1022" t="inlineStr">
         <is>
@@ -15804,10 +15766,8 @@
       </c>
     </row>
     <row r="1023">
-      <c r="A1023" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1023" t="n">
+        <v>10</v>
       </c>
       <c r="B1023" t="inlineStr">
         <is>
@@ -15821,10 +15781,8 @@
       </c>
     </row>
     <row r="1024">
-      <c r="A1024" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1024" t="n">
+        <v>10</v>
       </c>
       <c r="B1024" t="inlineStr">
         <is>
@@ -15838,10 +15796,8 @@
       </c>
     </row>
     <row r="1025">
-      <c r="A1025" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1025" t="n">
+        <v>10</v>
       </c>
       <c r="B1025" t="inlineStr">
         <is>
@@ -15855,10 +15811,8 @@
       </c>
     </row>
     <row r="1026">
-      <c r="A1026" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1026" t="n">
+        <v>10</v>
       </c>
       <c r="B1026" t="inlineStr">
         <is>
@@ -15872,10 +15826,8 @@
       </c>
     </row>
     <row r="1027">
-      <c r="A1027" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1027" t="n">
+        <v>10</v>
       </c>
       <c r="B1027" t="inlineStr">
         <is>
@@ -15889,10 +15841,8 @@
       </c>
     </row>
     <row r="1028">
-      <c r="A1028" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1028" t="n">
+        <v>10</v>
       </c>
       <c r="B1028" t="inlineStr">
         <is>
@@ -15906,10 +15856,8 @@
       </c>
     </row>
     <row r="1029">
-      <c r="A1029" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1029" t="n">
+        <v>10</v>
       </c>
       <c r="B1029" t="inlineStr">
         <is>
@@ -15923,10 +15871,8 @@
       </c>
     </row>
     <row r="1030">
-      <c r="A1030" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1030" t="n">
+        <v>10</v>
       </c>
       <c r="B1030" t="inlineStr">
         <is>
@@ -15940,10 +15886,8 @@
       </c>
     </row>
     <row r="1031">
-      <c r="A1031" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1031" t="n">
+        <v>10</v>
       </c>
       <c r="B1031" t="inlineStr">
         <is>
@@ -15957,10 +15901,8 @@
       </c>
     </row>
     <row r="1032">
-      <c r="A1032" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1032" t="n">
+        <v>10</v>
       </c>
       <c r="B1032" t="inlineStr">
         <is>
@@ -15974,10 +15916,8 @@
       </c>
     </row>
     <row r="1033">
-      <c r="A1033" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1033" t="n">
+        <v>10</v>
       </c>
       <c r="B1033" t="inlineStr">
         <is>
@@ -15991,10 +15931,8 @@
       </c>
     </row>
     <row r="1034">
-      <c r="A1034" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1034" t="n">
+        <v>10</v>
       </c>
       <c r="B1034" t="inlineStr">
         <is>
@@ -16008,10 +15946,8 @@
       </c>
     </row>
     <row r="1035">
-      <c r="A1035" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1035" t="n">
+        <v>10</v>
       </c>
       <c r="B1035" t="inlineStr">
         <is>
@@ -16025,10 +15961,8 @@
       </c>
     </row>
     <row r="1036">
-      <c r="A1036" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1036" t="n">
+        <v>10</v>
       </c>
       <c r="B1036" t="inlineStr">
         <is>
@@ -16042,10 +15976,8 @@
       </c>
     </row>
     <row r="1037">
-      <c r="A1037" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1037" t="n">
+        <v>10</v>
       </c>
       <c r="B1037" t="inlineStr">
         <is>
@@ -16059,10 +15991,8 @@
       </c>
     </row>
     <row r="1038">
-      <c r="A1038" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1038" t="n">
+        <v>10</v>
       </c>
       <c r="B1038" t="inlineStr">
         <is>
@@ -16076,10 +16006,8 @@
       </c>
     </row>
     <row r="1039">
-      <c r="A1039" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1039" t="n">
+        <v>10</v>
       </c>
       <c r="B1039" t="inlineStr">
         <is>
@@ -16093,10 +16021,8 @@
       </c>
     </row>
     <row r="1040">
-      <c r="A1040" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1040" t="n">
+        <v>10</v>
       </c>
       <c r="B1040" t="inlineStr">
         <is>
@@ -16110,10 +16036,8 @@
       </c>
     </row>
     <row r="1041">
-      <c r="A1041" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1041" t="n">
+        <v>10</v>
       </c>
       <c r="B1041" t="inlineStr">
         <is>
@@ -16127,10 +16051,8 @@
       </c>
     </row>
     <row r="1042">
-      <c r="A1042" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1042" t="n">
+        <v>10</v>
       </c>
       <c r="B1042" t="inlineStr">
         <is>
@@ -16144,10 +16066,8 @@
       </c>
     </row>
     <row r="1043">
-      <c r="A1043" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1043" t="n">
+        <v>10</v>
       </c>
       <c r="B1043" t="inlineStr">
         <is>
@@ -16161,10 +16081,8 @@
       </c>
     </row>
     <row r="1044">
-      <c r="A1044" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1044" t="n">
+        <v>10</v>
       </c>
       <c r="B1044" t="inlineStr">
         <is>
@@ -16178,10 +16096,8 @@
       </c>
     </row>
     <row r="1045">
-      <c r="A1045" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1045" t="n">
+        <v>10</v>
       </c>
       <c r="B1045" t="inlineStr">
         <is>
@@ -16195,10 +16111,8 @@
       </c>
     </row>
     <row r="1046">
-      <c r="A1046" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1046" t="n">
+        <v>10</v>
       </c>
       <c r="B1046" t="inlineStr">
         <is>
@@ -16212,10 +16126,8 @@
       </c>
     </row>
     <row r="1047">
-      <c r="A1047" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1047" t="n">
+        <v>10</v>
       </c>
       <c r="B1047" t="inlineStr">
         <is>
@@ -16229,10 +16141,8 @@
       </c>
     </row>
     <row r="1048">
-      <c r="A1048" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1048" t="n">
+        <v>10</v>
       </c>
       <c r="B1048" t="inlineStr">
         <is>
@@ -16246,10 +16156,8 @@
       </c>
     </row>
     <row r="1049">
-      <c r="A1049" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1049" t="n">
+        <v>10</v>
       </c>
       <c r="B1049" t="inlineStr">
         <is>
@@ -16263,10 +16171,8 @@
       </c>
     </row>
     <row r="1050">
-      <c r="A1050" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1050" t="n">
+        <v>10</v>
       </c>
       <c r="B1050" t="inlineStr">
         <is>
@@ -16280,10 +16186,8 @@
       </c>
     </row>
     <row r="1051">
-      <c r="A1051" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1051" t="n">
+        <v>10</v>
       </c>
       <c r="B1051" t="inlineStr">
         <is>
@@ -16297,10 +16201,8 @@
       </c>
     </row>
     <row r="1052">
-      <c r="A1052" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1052" t="n">
+        <v>10</v>
       </c>
       <c r="B1052" t="inlineStr">
         <is>
@@ -16314,10 +16216,8 @@
       </c>
     </row>
     <row r="1053">
-      <c r="A1053" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1053" t="n">
+        <v>10</v>
       </c>
       <c r="B1053" t="inlineStr">
         <is>
@@ -16331,10 +16231,8 @@
       </c>
     </row>
     <row r="1054">
-      <c r="A1054" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1054" t="n">
+        <v>10</v>
       </c>
       <c r="B1054" t="inlineStr">
         <is>
@@ -16348,10 +16246,8 @@
       </c>
     </row>
     <row r="1055">
-      <c r="A1055" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1055" t="n">
+        <v>10</v>
       </c>
       <c r="B1055" t="inlineStr">
         <is>
@@ -16365,10 +16261,8 @@
       </c>
     </row>
     <row r="1056">
-      <c r="A1056" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1056" t="n">
+        <v>10</v>
       </c>
       <c r="B1056" t="inlineStr">
         <is>
@@ -16382,10 +16276,8 @@
       </c>
     </row>
     <row r="1057">
-      <c r="A1057" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1057" t="n">
+        <v>10</v>
       </c>
       <c r="B1057" t="inlineStr">
         <is>
@@ -16399,10 +16291,8 @@
       </c>
     </row>
     <row r="1058">
-      <c r="A1058" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1058" t="n">
+        <v>10</v>
       </c>
       <c r="B1058" t="inlineStr">
         <is>
@@ -16416,10 +16306,8 @@
       </c>
     </row>
     <row r="1059">
-      <c r="A1059" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1059" t="n">
+        <v>10</v>
       </c>
       <c r="B1059" t="inlineStr">
         <is>
@@ -16433,10 +16321,8 @@
       </c>
     </row>
     <row r="1060">
-      <c r="A1060" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1060" t="n">
+        <v>10</v>
       </c>
       <c r="B1060" t="inlineStr">
         <is>
@@ -16450,10 +16336,8 @@
       </c>
     </row>
     <row r="1061">
-      <c r="A1061" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1061" t="n">
+        <v>10</v>
       </c>
       <c r="B1061" t="inlineStr">
         <is>
@@ -16467,10 +16351,8 @@
       </c>
     </row>
     <row r="1062">
-      <c r="A1062" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1062" t="n">
+        <v>10</v>
       </c>
       <c r="B1062" t="inlineStr">
         <is>
@@ -16484,10 +16366,8 @@
       </c>
     </row>
     <row r="1063">
-      <c r="A1063" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1063" t="n">
+        <v>10</v>
       </c>
       <c r="B1063" t="inlineStr">
         <is>
@@ -16501,10 +16381,8 @@
       </c>
     </row>
     <row r="1064">
-      <c r="A1064" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1064" t="n">
+        <v>10</v>
       </c>
       <c r="B1064" t="inlineStr">
         <is>
@@ -16518,10 +16396,8 @@
       </c>
     </row>
     <row r="1065">
-      <c r="A1065" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1065" t="n">
+        <v>10</v>
       </c>
       <c r="B1065" t="inlineStr">
         <is>
@@ -16535,10 +16411,8 @@
       </c>
     </row>
     <row r="1066">
-      <c r="A1066" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1066" t="n">
+        <v>10</v>
       </c>
       <c r="B1066" t="inlineStr">
         <is>
@@ -16552,10 +16426,8 @@
       </c>
     </row>
     <row r="1067">
-      <c r="A1067" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1067" t="n">
+        <v>10</v>
       </c>
       <c r="B1067" t="inlineStr">
         <is>
@@ -16569,10 +16441,8 @@
       </c>
     </row>
     <row r="1068">
-      <c r="A1068" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1068" t="n">
+        <v>10</v>
       </c>
       <c r="B1068" t="inlineStr">
         <is>
@@ -16586,10 +16456,8 @@
       </c>
     </row>
     <row r="1069">
-      <c r="A1069" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1069" t="n">
+        <v>10</v>
       </c>
       <c r="B1069" t="inlineStr">
         <is>
@@ -16603,10 +16471,8 @@
       </c>
     </row>
     <row r="1070">
-      <c r="A1070" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1070" t="n">
+        <v>10</v>
       </c>
       <c r="B1070" t="inlineStr">
         <is>
@@ -16620,10 +16486,8 @@
       </c>
     </row>
     <row r="1071">
-      <c r="A1071" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1071" t="n">
+        <v>10</v>
       </c>
       <c r="B1071" t="inlineStr">
         <is>
@@ -16637,10 +16501,8 @@
       </c>
     </row>
     <row r="1072">
-      <c r="A1072" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1072" t="n">
+        <v>10</v>
       </c>
       <c r="B1072" t="inlineStr">
         <is>
@@ -16654,10 +16516,8 @@
       </c>
     </row>
     <row r="1073">
-      <c r="A1073" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1073" t="n">
+        <v>10</v>
       </c>
       <c r="B1073" t="inlineStr">
         <is>
@@ -16671,10 +16531,8 @@
       </c>
     </row>
     <row r="1074">
-      <c r="A1074" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1074" t="n">
+        <v>10</v>
       </c>
       <c r="B1074" t="inlineStr">
         <is>
@@ -16688,10 +16546,8 @@
       </c>
     </row>
     <row r="1075">
-      <c r="A1075" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1075" t="n">
+        <v>10</v>
       </c>
       <c r="B1075" t="inlineStr">
         <is>
@@ -16705,10 +16561,8 @@
       </c>
     </row>
     <row r="1076">
-      <c r="A1076" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1076" t="n">
+        <v>10</v>
       </c>
       <c r="B1076" t="inlineStr">
         <is>
@@ -16722,10 +16576,8 @@
       </c>
     </row>
     <row r="1077">
-      <c r="A1077" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1077" t="n">
+        <v>10</v>
       </c>
       <c r="B1077" t="inlineStr">
         <is>
@@ -16739,10 +16591,8 @@
       </c>
     </row>
     <row r="1078">
-      <c r="A1078" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1078" t="n">
+        <v>10</v>
       </c>
       <c r="B1078" t="inlineStr">
         <is>
@@ -16756,10 +16606,8 @@
       </c>
     </row>
     <row r="1079">
-      <c r="A1079" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1079" t="n">
+        <v>10</v>
       </c>
       <c r="B1079" t="inlineStr">
         <is>
@@ -16773,10 +16621,8 @@
       </c>
     </row>
     <row r="1080">
-      <c r="A1080" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1080" t="n">
+        <v>10</v>
       </c>
       <c r="B1080" t="inlineStr">
         <is>
@@ -16790,10 +16636,8 @@
       </c>
     </row>
     <row r="1081">
-      <c r="A1081" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1081" t="n">
+        <v>10</v>
       </c>
       <c r="B1081" t="inlineStr">
         <is>
@@ -16807,10 +16651,8 @@
       </c>
     </row>
     <row r="1082">
-      <c r="A1082" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1082" t="n">
+        <v>10</v>
       </c>
       <c r="B1082" t="inlineStr">
         <is>
@@ -16824,10 +16666,8 @@
       </c>
     </row>
     <row r="1083">
-      <c r="A1083" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1083" t="n">
+        <v>10</v>
       </c>
       <c r="B1083" t="inlineStr">
         <is>
@@ -16841,10 +16681,8 @@
       </c>
     </row>
     <row r="1084">
-      <c r="A1084" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1084" t="n">
+        <v>10</v>
       </c>
       <c r="B1084" t="inlineStr">
         <is>
@@ -16858,10 +16696,8 @@
       </c>
     </row>
     <row r="1085">
-      <c r="A1085" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1085" t="n">
+        <v>10</v>
       </c>
       <c r="B1085" t="inlineStr">
         <is>
@@ -16875,10 +16711,8 @@
       </c>
     </row>
     <row r="1086">
-      <c r="A1086" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1086" t="n">
+        <v>10</v>
       </c>
       <c r="B1086" t="inlineStr">
         <is>
@@ -16892,10 +16726,8 @@
       </c>
     </row>
     <row r="1087">
-      <c r="A1087" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1087" t="n">
+        <v>10</v>
       </c>
       <c r="B1087" t="inlineStr">
         <is>
@@ -16909,10 +16741,8 @@
       </c>
     </row>
     <row r="1088">
-      <c r="A1088" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1088" t="n">
+        <v>10</v>
       </c>
       <c r="B1088" t="inlineStr">
         <is>
@@ -16926,10 +16756,8 @@
       </c>
     </row>
     <row r="1089">
-      <c r="A1089" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1089" t="n">
+        <v>10</v>
       </c>
       <c r="B1089" t="inlineStr">
         <is>
@@ -16943,10 +16771,8 @@
       </c>
     </row>
     <row r="1090">
-      <c r="A1090" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1090" t="n">
+        <v>10</v>
       </c>
       <c r="B1090" t="inlineStr">
         <is>
@@ -16960,10 +16786,8 @@
       </c>
     </row>
     <row r="1091">
-      <c r="A1091" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1091" t="n">
+        <v>10</v>
       </c>
       <c r="B1091" t="inlineStr">
         <is>
@@ -16977,10 +16801,8 @@
       </c>
     </row>
     <row r="1092">
-      <c r="A1092" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1092" t="n">
+        <v>10</v>
       </c>
       <c r="B1092" t="inlineStr">
         <is>
@@ -16994,10 +16816,8 @@
       </c>
     </row>
     <row r="1093">
-      <c r="A1093" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1093" t="n">
+        <v>10</v>
       </c>
       <c r="B1093" t="inlineStr">
         <is>
@@ -17011,10 +16831,8 @@
       </c>
     </row>
     <row r="1094">
-      <c r="A1094" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1094" t="n">
+        <v>10</v>
       </c>
       <c r="B1094" t="inlineStr">
         <is>
@@ -17028,10 +16846,8 @@
       </c>
     </row>
     <row r="1095">
-      <c r="A1095" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1095" t="n">
+        <v>10</v>
       </c>
       <c r="B1095" t="inlineStr">
         <is>
@@ -17045,10 +16861,8 @@
       </c>
     </row>
     <row r="1096">
-      <c r="A1096" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1096" t="n">
+        <v>10</v>
       </c>
       <c r="B1096" t="inlineStr">
         <is>
@@ -17062,10 +16876,8 @@
       </c>
     </row>
     <row r="1097">
-      <c r="A1097" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1097" t="n">
+        <v>10</v>
       </c>
       <c r="B1097" t="inlineStr">
         <is>
@@ -17079,10 +16891,8 @@
       </c>
     </row>
     <row r="1098">
-      <c r="A1098" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1098" t="n">
+        <v>10</v>
       </c>
       <c r="B1098" t="inlineStr">
         <is>
@@ -17096,10 +16906,8 @@
       </c>
     </row>
     <row r="1099">
-      <c r="A1099" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1099" t="n">
+        <v>10</v>
       </c>
       <c r="B1099" t="inlineStr">
         <is>
@@ -17113,10 +16921,8 @@
       </c>
     </row>
     <row r="1100">
-      <c r="A1100" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1100" t="n">
+        <v>10</v>
       </c>
       <c r="B1100" t="inlineStr">
         <is>
@@ -17130,10 +16936,8 @@
       </c>
     </row>
     <row r="1101">
-      <c r="A1101" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1101" t="n">
+        <v>10</v>
       </c>
       <c r="B1101" t="inlineStr">
         <is>
@@ -17147,10 +16951,8 @@
       </c>
     </row>
     <row r="1102">
-      <c r="A1102" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1102" t="n">
+        <v>10</v>
       </c>
       <c r="B1102" t="inlineStr">
         <is>
@@ -17164,10 +16966,8 @@
       </c>
     </row>
     <row r="1103">
-      <c r="A1103" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A1103" t="n">
+        <v>10</v>
       </c>
       <c r="B1103" t="inlineStr">
         <is>
@@ -17177,6 +16977,1706 @@
       <c r="C1103" t="inlineStr">
         <is>
           <t>C:\Users\HP\Desktop\Projets\Deep Learning\face_recognition\train\10_Test\Test_99.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_0.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_1.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_2.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1107" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_3.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1108" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_4.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1109" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_5.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_6.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_7.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_8.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_9.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_10.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_11.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_12.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_13.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_14.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1119" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_15.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1120" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_16.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1121" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_17.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1122" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_18.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1123" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_19.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1124" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_20.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_21.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_22.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_23.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1128" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_24.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1129" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_25.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_26.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_27.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_28.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_29.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_30.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_31.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_32.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_33.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_34.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_35.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1140" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_36.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_37.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_38.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_39.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_40.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_41.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_42.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_43.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_44.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_45.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_46.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_47.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_48.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_49.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_50.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_51.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_52.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_53.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_54.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_55.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_56.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_57.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_58.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_59.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_60.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_61.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_62.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_63.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_64.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_65.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_66.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_67.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_68.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_69.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_70.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_71.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_72.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_73.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_74.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_75.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_76.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_77.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_78.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_79.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_80.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_81.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_82.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_83.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_84.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_85.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_86.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_87.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_88.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_89.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_90.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_91.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_92.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_93.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_94.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_95.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_96.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_97.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_98.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>Saaaaad</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>train\19_Saaaaad\Saaaaad_99.npy</t>
         </is>
       </c>
     </row>
